--- a/videos.xlsx
+++ b/videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\Downloads\automations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293BD760-8EC2-4991-BF48-A7AD0C273F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65CEEE2-522F-49AF-8EF5-D0CCDA8E35A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DC4206B4-F0A9-497C-B7D7-1F4DBA5FC448}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>https://www.youtube.com/shorts/YExukx0uVLY</t>
   </si>
@@ -58,18 +58,6 @@
   </si>
   <si>
     <t>Link</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/1lstB8QW86o</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/eqbjUKD7wjk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/8uqQq7BgN70</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/shorts/nRr9dWpcoW8</t>
   </si>
 </sst>
 </file>
@@ -445,7 +433,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,30 +447,18 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{26881BBD-519E-4DE0-AD41-ACF0A7AC725D}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{7E339AEE-CF5F-4776-8F02-D2A72C84FFC6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
